--- a/数据整理/stocks/其他/TSM-台积电.xlsx
+++ b/数据整理/stocks/其他/TSM-台积电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/TSM-台积电.xlsx
+++ b/数据整理/stocks/其他/TSM-台积电.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8250</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1067,13 +1110,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8250</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.4</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/TSM-台积电.xlsx
+++ b/数据整理/stocks/其他/TSM-台积电.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.77</v>
+          <t>011420</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6328</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1276,14 +1319,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.12</v>
+          <t>011421</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1292,13 +1357,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4373</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4373</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011422</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3121</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011423</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3121</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.4</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/TSM-台积电.xlsx
+++ b/数据整理/stocks/其他/TSM-台积电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.9</v>
+          <t>011420</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3530</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.77</v>
+          <t>011421</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3530</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.12</v>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1902</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1669,13 +1756,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1902</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011422</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011423</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.4</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/TSM-台积电.xlsx
+++ b/数据整理/stocks/其他/TSM-台积电.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>5.63</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>6.9</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3.77</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011420</t>
+          <t>000906</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发全球科技三个月定期开放混合（QDII）人民币A</t>
+          <t>广发全球精选股票（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.76</t>
+          <t>21.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>79.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3530</t>
+          <t>1.0568</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011421</t>
+          <t>270023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发全球科技三个月定期开放混合（QDII）美元A</t>
+          <t>广发全球精选股票（QDII）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.76</t>
+          <t>21.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>79.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3530</t>
+          <t>1.0568</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -698,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>270023</t>
+          <t>011421</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发全球精选股票(QDII)</t>
+          <t>广发全球科技三个月定期开放混合（QDII）美元 A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.04</t>
+          <t>22.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.33</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1902</t>
+          <t>0.9751</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -736,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000906</t>
+          <t>011420</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发全球精选股票(QDII)美元现汇</t>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币 A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.04</t>
+          <t>22.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>73.33</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1902</t>
+          <t>0.9751</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -774,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011422</t>
+          <t>011423</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发全球科技三个月定期开放混合（QDII）人民币C</t>
+          <t>广发全球科技三个月定期开放混合（QDII）美元 C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2582</t>
+          <t>0.2261</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -812,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011423</t>
+          <t>011422</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发全球科技三个月定期开放混合（QDII）美元C</t>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币 C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2582</t>
+          <t>0.2261</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -855,27 +872,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上投摩根全球新兴市场混合(QDII)</t>
+          <t>上投摩根全球新兴市场混合（QDII）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>87.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0291</t>
+          <t>0.0256</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -888,6 +905,328 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011420</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3530</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011421</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3530</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1902</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1902</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011422</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011423</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1247,7 +1586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1455,7 +1794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1625,7 +1964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/TSM-台积电.xlsx
+++ b/数据整理/stocks/其他/TSM-台积电.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>4.54</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>5.63</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>6.9</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>3.77</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000906</t>
+          <t>011423</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发全球精选股票（QDII）美元现汇</t>
+          <t>广发全球科技三个月定期开放混合（QDII）美元 C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.88</t>
+          <t>25.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.27</t>
+          <t>89.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0568</t>
+          <t>1.2702</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -687,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.88</t>
+          <t>20.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.27</t>
+          <t>82.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0568</t>
+          <t>1.1268</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011421</t>
+          <t>000906</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发全球科技三个月定期开放混合（QDII）美元 A</t>
+          <t>广发全球精选股票（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.73</t>
+          <t>20.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>82.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9751</t>
+          <t>1.1268</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -763,22 +780,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.73</t>
+          <t>21.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>89.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9751</t>
+          <t>1.0405</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -791,32 +808,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011423</t>
+          <t>011422</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发全球科技三个月定期开放混合（QDII）美元 C</t>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币 C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>89.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2261</t>
+          <t>0.2396</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -829,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011422</t>
+          <t>378006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发全球科技三个月定期开放混合（QDII）人民币 C</t>
+          <t>上投摩根全球新兴市场混合（QDII）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>86.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2261</t>
+          <t>0.0263</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -867,36 +884,112 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>378006</t>
+          <t>013328</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上投摩根全球新兴市场混合（QDII）</t>
+          <t>嘉实全球价值股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.48</t>
+          <t>90.66</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0256</t>
+          <t>0.0133</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013329</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实全球价值股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011421</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元 A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -961,36 +1054,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011420</t>
+          <t>000906</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发全球科技三个月定期开放混合（QDII）人民币A</t>
+          <t>广发全球精选股票（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.76</t>
+          <t>21.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>79.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3530</t>
+          <t>1.0568</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -999,36 +1092,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011421</t>
+          <t>270023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发全球科技三个月定期开放混合（QDII）美元A</t>
+          <t>广发全球精选股票（QDII）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.76</t>
+          <t>21.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>79.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3530</t>
+          <t>1.0568</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1037,36 +1130,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>270023</t>
+          <t>011421</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发全球精选股票(QDII)</t>
+          <t>广发全球科技三个月定期开放混合（QDII）美元 A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.04</t>
+          <t>22.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.33</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1902</t>
+          <t>0.9751</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1075,36 +1168,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000906</t>
+          <t>011420</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发全球精选股票(QDII)美元现汇</t>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币 A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.04</t>
+          <t>22.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>73.33</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1902</t>
+          <t>0.9751</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1113,36 +1206,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011422</t>
+          <t>011423</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发全球科技三个月定期开放混合（QDII）人民币C</t>
+          <t>广发全球科技三个月定期开放混合（QDII）美元 C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2582</t>
+          <t>0.2261</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1151,36 +1244,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011423</t>
+          <t>011422</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发全球科技三个月定期开放混合（QDII）美元C</t>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币 C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2582</t>
+          <t>0.2261</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1194,27 +1287,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上投摩根全球新兴市场混合(QDII)</t>
+          <t>上投摩根全球新兴市场混合（QDII）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>87.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0291</t>
+          <t>0.0256</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1227,6 +1320,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011420</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3530</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011421</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3530</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1902</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1902</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011422</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011423</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1586,7 +2001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1794,7 +2209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1964,7 +2379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
